--- a/Code/Results/Cases/Case_1_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9513276068219044</v>
+        <v>1.010609482809288</v>
       </c>
       <c r="D2">
-        <v>1.031052035522585</v>
+        <v>1.032759647145525</v>
       </c>
       <c r="E2">
-        <v>0.9645315653050832</v>
+        <v>1.012894841371706</v>
       </c>
       <c r="F2">
-        <v>0.9311864489509041</v>
+        <v>1.021566736237584</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043865617808694</v>
+        <v>1.032024198915173</v>
       </c>
       <c r="J2">
-        <v>0.9750683863819725</v>
+        <v>1.015862738610064</v>
       </c>
       <c r="K2">
-        <v>1.0420950744051</v>
+        <v>1.035563950726745</v>
       </c>
       <c r="L2">
-        <v>0.9765081922700708</v>
+        <v>1.015757626064116</v>
       </c>
       <c r="M2">
-        <v>0.9436956871993294</v>
+        <v>1.024403686839626</v>
       </c>
       <c r="N2">
-        <v>0.9764530953325419</v>
+        <v>1.017305380219976</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9592009114586326</v>
+        <v>1.01195608930404</v>
       </c>
       <c r="D3">
-        <v>1.03558228411143</v>
+        <v>1.033355579263744</v>
       </c>
       <c r="E3">
-        <v>0.970969704844453</v>
+        <v>1.014044663794074</v>
       </c>
       <c r="F3">
-        <v>0.9461596111243451</v>
+        <v>1.023560347132546</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046928859719642</v>
+        <v>1.03226673126711</v>
       </c>
       <c r="J3">
-        <v>0.9808691605979478</v>
+        <v>1.016840118094799</v>
       </c>
       <c r="K3">
-        <v>1.045779259131669</v>
+        <v>1.035969291396394</v>
       </c>
       <c r="L3">
-        <v>0.9819880221564173</v>
+        <v>1.016711097299833</v>
       </c>
       <c r="M3">
-        <v>0.9575311188792365</v>
+        <v>1.026200532358902</v>
       </c>
       <c r="N3">
-        <v>0.9822621073132618</v>
+        <v>1.018284147695686</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9640470077215603</v>
+        <v>1.012822566151268</v>
       </c>
       <c r="D4">
-        <v>1.038338065786618</v>
+        <v>1.033735319735869</v>
       </c>
       <c r="E4">
-        <v>0.9749379934820955</v>
+        <v>1.01478488247118</v>
       </c>
       <c r="F4">
-        <v>0.9551396421512908</v>
+        <v>1.024827793057758</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048749437946928</v>
+        <v>1.032416675655519</v>
       </c>
       <c r="J4">
-        <v>0.9844173572988472</v>
+        <v>1.017467331238495</v>
       </c>
       <c r="K4">
-        <v>1.047994796592656</v>
+        <v>1.036225025101365</v>
       </c>
       <c r="L4">
-        <v>0.985348611706658</v>
+        <v>1.017323709116644</v>
       </c>
       <c r="M4">
-        <v>0.9658114440317573</v>
+        <v>1.027340343374573</v>
       </c>
       <c r="N4">
-        <v>0.9858153428604609</v>
+        <v>1.018912251553988</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9660307238031448</v>
+        <v>1.013185682875214</v>
       </c>
       <c r="D5">
-        <v>1.03945843425908</v>
+        <v>1.033893562908545</v>
       </c>
       <c r="E5">
-        <v>0.9765636933779559</v>
+        <v>1.015095174267709</v>
       </c>
       <c r="F5">
-        <v>0.9587641939947129</v>
+        <v>1.025355275314863</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049479683594832</v>
+        <v>1.032478043611925</v>
       </c>
       <c r="J5">
-        <v>0.9858648312236019</v>
+        <v>1.017729775344011</v>
       </c>
       <c r="K5">
-        <v>1.04888959716398</v>
+        <v>1.036330972626921</v>
       </c>
       <c r="L5">
-        <v>0.9867215148525592</v>
+        <v>1.017580221605214</v>
       </c>
       <c r="M5">
-        <v>0.9691493194846332</v>
+        <v>1.027814088870227</v>
       </c>
       <c r="N5">
-        <v>0.9872648723642159</v>
+        <v>1.019175068360237</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9663608074802673</v>
+        <v>1.013246584755431</v>
       </c>
       <c r="D6">
-        <v>1.039644409653199</v>
+        <v>1.033920050686757</v>
       </c>
       <c r="E6">
-        <v>0.9768342805610561</v>
+        <v>1.015147221414558</v>
       </c>
       <c r="F6">
-        <v>0.9593644173597548</v>
+        <v>1.025443529391489</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049600325170373</v>
+        <v>1.032488249840295</v>
       </c>
       <c r="J6">
-        <v>0.9861054037467407</v>
+        <v>1.017773768721878</v>
       </c>
       <c r="K6">
-        <v>1.049037785010249</v>
+        <v>1.036348670163254</v>
       </c>
       <c r="L6">
-        <v>0.986949805964885</v>
+        <v>1.017623231129638</v>
       </c>
       <c r="M6">
-        <v>0.9697018156562478</v>
+        <v>1.027893315564966</v>
       </c>
       <c r="N6">
-        <v>0.9875057865279318</v>
+        <v>1.019219124213746</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9640737177988961</v>
+        <v>1.012827422633695</v>
       </c>
       <c r="D7">
-        <v>1.038353181604878</v>
+        <v>1.033737439682197</v>
       </c>
       <c r="E7">
-        <v>0.9749598778293963</v>
+        <v>1.014789032110513</v>
       </c>
       <c r="F7">
-        <v>0.9551886433758363</v>
+        <v>1.024834862268901</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048759329386736</v>
+        <v>1.032417502207494</v>
       </c>
       <c r="J7">
-        <v>0.9844368663016597</v>
+        <v>1.017470842870511</v>
       </c>
       <c r="K7">
-        <v>1.048006892481884</v>
+        <v>1.036226446912124</v>
       </c>
       <c r="L7">
-        <v>0.9853671079879349</v>
+        <v>1.017327140679221</v>
       </c>
       <c r="M7">
-        <v>0.9658565867423922</v>
+        <v>1.027346694868025</v>
       </c>
       <c r="N7">
-        <v>0.985834879568295</v>
+        <v>1.018915768172924</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9540438079613479</v>
+        <v>1.01106559198892</v>
       </c>
       <c r="D8">
-        <v>1.032622013850186</v>
+        <v>1.032962263259591</v>
       </c>
       <c r="E8">
-        <v>0.9667514513849068</v>
+        <v>1.013284222071333</v>
       </c>
       <c r="F8">
-        <v>0.9364062315065258</v>
+        <v>1.022245185610508</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044936691533532</v>
+        <v>1.032107614316608</v>
       </c>
       <c r="J8">
-        <v>0.9770746132470627</v>
+        <v>1.016194136526184</v>
       </c>
       <c r="K8">
-        <v>1.043377511781171</v>
+        <v>1.035702296594543</v>
       </c>
       <c r="L8">
-        <v>0.9784014600198145</v>
+        <v>1.016080763393022</v>
       </c>
       <c r="M8">
-        <v>0.9485225669138229</v>
+        <v>1.025015701295021</v>
       </c>
       <c r="N8">
-        <v>0.9784621712698982</v>
+        <v>1.017637248759147</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.934118808022712</v>
+        <v>1.007923027341341</v>
       </c>
       <c r="D9">
-        <v>1.020945558295628</v>
+        <v>1.031551111661283</v>
       </c>
       <c r="E9">
-        <v>0.9504926501313637</v>
+        <v>1.010602935523861</v>
       </c>
       <c r="F9">
-        <v>0.8967270253462843</v>
+        <v>1.017506848660415</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036749290791117</v>
+        <v>1.031507768688152</v>
       </c>
       <c r="J9">
-        <v>0.9622335452115877</v>
+        <v>1.013903865384551</v>
       </c>
       <c r="K9">
-        <v>1.033707709065608</v>
+        <v>1.034728270913417</v>
       </c>
       <c r="L9">
-        <v>0.9644434908031316</v>
+        <v>1.01385065020971</v>
       </c>
       <c r="M9">
-        <v>0.9117518536945414</v>
+        <v>1.020730957623866</v>
       </c>
       <c r="N9">
-        <v>0.9636000272155184</v>
+        <v>1.015343725169797</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9186152580570999</v>
+        <v>1.005801391960342</v>
       </c>
       <c r="D10">
-        <v>1.011619160398689</v>
+        <v>1.030579556704191</v>
       </c>
       <c r="E10">
-        <v>0.9378733648347681</v>
+        <v>1.008794662183051</v>
       </c>
       <c r="F10">
-        <v>0.863414119947251</v>
+        <v>1.014226939342651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029868904419234</v>
+        <v>1.031071320330002</v>
       </c>
       <c r="J10">
-        <v>0.9504763380642411</v>
+        <v>1.012348870596195</v>
       </c>
       <c r="K10">
-        <v>1.02578174917489</v>
+        <v>1.034044634333437</v>
       </c>
       <c r="L10">
-        <v>0.9534628786574256</v>
+        <v>1.012340363925048</v>
       </c>
       <c r="M10">
-        <v>0.8807814488331687</v>
+        <v>1.017752177859602</v>
       </c>
       <c r="N10">
-        <v>0.9518261234854523</v>
+        <v>1.01378652211048</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9110986903605733</v>
+        <v>1.004876145895335</v>
       </c>
       <c r="D11">
-        <v>1.007022164926147</v>
+        <v>1.030151456997499</v>
       </c>
       <c r="E11">
-        <v>0.9317607219070112</v>
+        <v>1.008006540473596</v>
       </c>
       <c r="F11">
-        <v>0.8463656173913237</v>
+        <v>1.012777193719117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02637240942321</v>
+        <v>1.030873564004273</v>
       </c>
       <c r="J11">
-        <v>0.9447021015887849</v>
+        <v>1.011668654375489</v>
       </c>
       <c r="K11">
-        <v>1.021812857498138</v>
+        <v>1.033740378356078</v>
       </c>
       <c r="L11">
-        <v>0.9480954557658886</v>
+        <v>1.01168062022094</v>
       </c>
       <c r="M11">
-        <v>0.8649113090742471</v>
+        <v>1.016432578441876</v>
       </c>
       <c r="N11">
-        <v>0.9460436869318866</v>
+        <v>1.013105339904719</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9081446057451411</v>
+        <v>1.004531459895489</v>
       </c>
       <c r="D12">
-        <v>1.005201418434132</v>
+        <v>1.029991318556566</v>
       </c>
       <c r="E12">
-        <v>0.9293587924679287</v>
+        <v>1.007713008752373</v>
       </c>
       <c r="F12">
-        <v>0.8394848144309988</v>
+        <v>1.012234184930459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024968482431388</v>
+        <v>1.030798781170333</v>
       </c>
       <c r="J12">
-        <v>0.9424181441520558</v>
+        <v>1.011414937118939</v>
       </c>
       <c r="K12">
-        <v>1.020229641354944</v>
+        <v>1.033626116938314</v>
       </c>
       <c r="L12">
-        <v>0.945977194421422</v>
+        <v>1.011434676609137</v>
       </c>
       <c r="M12">
-        <v>0.8585035732479704</v>
+        <v>1.015937879647752</v>
       </c>
       <c r="N12">
-        <v>0.9437564860136241</v>
+        <v>1.012851262340563</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9087865553556966</v>
+        <v>1.004605442213128</v>
       </c>
       <c r="D13">
-        <v>1.005597777940078</v>
+        <v>1.030025719787288</v>
       </c>
       <c r="E13">
-        <v>0.929880746994364</v>
+        <v>1.00777600826795</v>
       </c>
       <c r="F13">
-        <v>0.8409891861335697</v>
+        <v>1.012350867402869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025275027664784</v>
+        <v>1.030814882567407</v>
       </c>
       <c r="J13">
-        <v>0.9429152027726044</v>
+        <v>1.011469408372913</v>
       </c>
       <c r="K13">
-        <v>1.020574837092781</v>
+        <v>1.033650683002581</v>
       </c>
       <c r="L13">
-        <v>0.9464379574661725</v>
+        <v>1.011487472698862</v>
       </c>
       <c r="M13">
-        <v>0.8599046164863394</v>
+        <v>1.01604420083844</v>
       </c>
       <c r="N13">
-        <v>0.9442542505144272</v>
+        <v>1.012905810949965</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9108581433155766</v>
+        <v>1.004847674746568</v>
       </c>
       <c r="D14">
-        <v>1.006874207541824</v>
+        <v>1.030138242875726</v>
       </c>
       <c r="E14">
-        <v>0.9315651319369113</v>
+        <v>1.007982293235923</v>
       </c>
       <c r="F14">
-        <v>0.8458092855977319</v>
+        <v>1.012732400856362</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026258728042309</v>
+        <v>1.030867409566748</v>
       </c>
       <c r="J14">
-        <v>0.9445164415959527</v>
+        <v>1.011647703656094</v>
       </c>
       <c r="K14">
-        <v>1.021684440751538</v>
+        <v>1.03373095897295</v>
       </c>
       <c r="L14">
-        <v>0.9479231623206895</v>
+        <v>1.011660308609284</v>
       </c>
       <c r="M14">
-        <v>0.8643932716227952</v>
+        <v>1.016391779525666</v>
       </c>
       <c r="N14">
-        <v>0.9458577632805694</v>
+        <v>1.013084359432899</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9121113735422985</v>
+        <v>1.004996787898932</v>
       </c>
       <c r="D15">
-        <v>1.007644470188429</v>
+        <v>1.030207422928175</v>
       </c>
       <c r="E15">
-        <v>0.9325841520155702</v>
+        <v>1.008109287216754</v>
       </c>
       <c r="F15">
-        <v>0.8487001828170573</v>
+        <v>1.012966876510091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026849768526102</v>
+        <v>1.030899597003333</v>
       </c>
       <c r="J15">
-        <v>0.9454831050250352</v>
+        <v>1.011757416926929</v>
       </c>
       <c r="K15">
-        <v>1.022352514018645</v>
+        <v>1.033780254078845</v>
       </c>
       <c r="L15">
-        <v>0.9488204285063342</v>
+        <v>1.011766680666715</v>
       </c>
       <c r="M15">
-        <v>0.8670850823097132</v>
+        <v>1.016605330415651</v>
       </c>
       <c r="N15">
-        <v>0.9468257994825987</v>
+        <v>1.013194228509163</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9190941609242359</v>
+        <v>1.005862657320845</v>
       </c>
       <c r="D16">
-        <v>1.011910350377903</v>
+        <v>1.03060781132487</v>
       </c>
       <c r="E16">
-        <v>0.9382629024318905</v>
+        <v>1.008846857687079</v>
       </c>
       <c r="F16">
-        <v>0.8644791547026414</v>
+        <v>1.014322525999694</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030088064665244</v>
+        <v>1.031084259166297</v>
       </c>
       <c r="J16">
-        <v>0.9508425046745228</v>
+        <v>1.012393867468966</v>
       </c>
       <c r="K16">
-        <v>1.026031782695941</v>
+        <v>1.034064652447541</v>
       </c>
       <c r="L16">
-        <v>0.9538038216413752</v>
+        <v>1.012384025728117</v>
       </c>
       <c r="M16">
-        <v>0.8817725077586578</v>
+        <v>1.017839122380088</v>
       </c>
       <c r="N16">
-        <v>0.9521928100943201</v>
+        <v>1.013831582883971</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9232364914119786</v>
+        <v>1.006404021554044</v>
       </c>
       <c r="D17">
-        <v>1.014420722611984</v>
+        <v>1.030856973773973</v>
       </c>
       <c r="E17">
-        <v>0.9416328417054954</v>
+        <v>1.0093081310143</v>
       </c>
       <c r="F17">
-        <v>0.8735912185907003</v>
+        <v>1.015164934363902</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031965960704616</v>
+        <v>1.031197738018906</v>
       </c>
       <c r="J17">
-        <v>0.9540014745823316</v>
+        <v>1.01279123739909</v>
       </c>
       <c r="K17">
-        <v>1.028180542077657</v>
+        <v>1.034240836167057</v>
       </c>
       <c r="L17">
-        <v>0.956747980395754</v>
+        <v>1.012769710745659</v>
       </c>
       <c r="M17">
-        <v>0.8902495437683255</v>
+        <v>1.018605030454117</v>
       </c>
       <c r="N17">
-        <v>0.9553562661017373</v>
+        <v>1.014229517124976</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9255787027480749</v>
+        <v>1.006719158380726</v>
       </c>
       <c r="D18">
-        <v>1.015833626992388</v>
+        <v>1.031001591767191</v>
       </c>
       <c r="E18">
-        <v>0.9435388529888885</v>
+        <v>1.009576690471909</v>
       </c>
       <c r="F18">
-        <v>0.8786664076557601</v>
+        <v>1.015653453487526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033013787172855</v>
+        <v>1.031263082694505</v>
       </c>
       <c r="J18">
-        <v>0.955781285763122</v>
+        <v>1.013022352794763</v>
       </c>
       <c r="K18">
-        <v>1.029384536030091</v>
+        <v>1.034342807112825</v>
       </c>
       <c r="L18">
-        <v>0.9584089548783483</v>
+        <v>1.012994117822364</v>
       </c>
       <c r="M18">
-        <v>0.8949692209253164</v>
+        <v>1.019048904303736</v>
       </c>
       <c r="N18">
-        <v>0.9571386048185517</v>
+        <v>1.014460960731019</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9263657105650376</v>
+        <v>1.00682650539416</v>
       </c>
       <c r="D19">
-        <v>1.016307322926771</v>
+        <v>1.031050781903765</v>
       </c>
       <c r="E19">
-        <v>0.9441793914532627</v>
+        <v>1.009668179134529</v>
       </c>
       <c r="F19">
-        <v>0.8803595989379188</v>
+        <v>1.015819545747483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033363609706411</v>
+        <v>1.031285220385799</v>
       </c>
       <c r="J19">
-        <v>0.9563783120716937</v>
+        <v>1.013101045148912</v>
       </c>
       <c r="K19">
-        <v>1.029787318175327</v>
+        <v>1.034377442169811</v>
       </c>
       <c r="L19">
-        <v>0.9589664695480202</v>
+        <v>1.013070540954167</v>
       </c>
       <c r="M19">
-        <v>0.8965434866310319</v>
+        <v>1.019199769476443</v>
       </c>
       <c r="N19">
-        <v>0.9577364789729613</v>
+        <v>1.014539764837338</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9227999345919998</v>
+        <v>1.006346003800704</v>
       </c>
       <c r="D20">
-        <v>1.01415685535672</v>
+        <v>1.030830314948629</v>
       </c>
       <c r="E20">
-        <v>0.9412776324865195</v>
+        <v>1.00925869192086</v>
       </c>
       <c r="F20">
-        <v>0.872639211294834</v>
+        <v>1.015074846545949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031769545169149</v>
+        <v>1.031185650345297</v>
       </c>
       <c r="J20">
-        <v>0.9536692388318412</v>
+        <v>1.012748672157461</v>
       </c>
       <c r="K20">
-        <v>1.027955258861294</v>
+        <v>1.034222015520485</v>
       </c>
       <c r="L20">
-        <v>0.9564381020589439</v>
+        <v>1.012728388072897</v>
       </c>
       <c r="M20">
-        <v>0.8893640712263158</v>
+        <v>1.018523152836888</v>
       </c>
       <c r="N20">
-        <v>0.955023558538373</v>
+        <v>1.014186891435821</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9102530483388693</v>
+        <v>1.004776371323326</v>
       </c>
       <c r="D21">
-        <v>1.006501785053236</v>
+        <v>1.030105138718046</v>
       </c>
       <c r="E21">
-        <v>0.9310731304913609</v>
+        <v>1.007921569360748</v>
       </c>
       <c r="F21">
-        <v>0.8444067638152462</v>
+        <v>1.012620173831517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025972265031978</v>
+        <v>1.030851978395455</v>
       </c>
       <c r="J21">
-        <v>0.9440491667632243</v>
+        <v>1.011595229410085</v>
       </c>
       <c r="K21">
-        <v>1.021361017276077</v>
+        <v>1.033707354210825</v>
       </c>
       <c r="L21">
-        <v>0.9474896089098815</v>
+        <v>1.011609437324394</v>
       </c>
       <c r="M21">
-        <v>0.8630872531793329</v>
+        <v>1.01628955218115</v>
       </c>
       <c r="N21">
-        <v>0.9453898248639809</v>
+        <v>1.013031810667441</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9013817033004372</v>
+        <v>1.003783635026667</v>
       </c>
       <c r="D22">
-        <v>1.001001534883569</v>
+        <v>1.029642688031141</v>
       </c>
       <c r="E22">
-        <v>0.923859794142459</v>
+        <v>1.007076297477288</v>
       </c>
       <c r="F22">
-        <v>0.8233118873899896</v>
+        <v>1.011050698802223</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021688504501797</v>
+        <v>1.030634500851759</v>
       </c>
       <c r="J22">
-        <v>0.9371556568174686</v>
+        <v>1.010863902157069</v>
       </c>
       <c r="K22">
-        <v>1.016553177247708</v>
+        <v>1.033376544976065</v>
       </c>
       <c r="L22">
-        <v>0.9411071719743236</v>
+        <v>1.010900776776225</v>
       </c>
       <c r="M22">
-        <v>0.8434387926707381</v>
+        <v>1.014858890603523</v>
       </c>
       <c r="N22">
-        <v>0.9384865253434057</v>
+        <v>1.012299444845842</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9061997220561461</v>
+        <v>1.004310465128878</v>
       </c>
       <c r="D23">
-        <v>1.003998193897265</v>
+        <v>1.029888461844596</v>
       </c>
       <c r="E23">
-        <v>0.9277774521156696</v>
+        <v>1.00752483144088</v>
       </c>
       <c r="F23">
-        <v>0.8348953813738428</v>
+        <v>1.011885208917343</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024034749464954</v>
+        <v>1.030750521603882</v>
       </c>
       <c r="J23">
-        <v>0.9409096821516012</v>
+        <v>1.011252178499675</v>
       </c>
       <c r="K23">
-        <v>1.019179874009742</v>
+        <v>1.033552601128641</v>
       </c>
       <c r="L23">
-        <v>0.9445796902691026</v>
+        <v>1.011276943476352</v>
       </c>
       <c r="M23">
-        <v>0.8542290636270531</v>
+        <v>1.015619828864689</v>
       </c>
       <c r="N23">
-        <v>0.9422458818241054</v>
+        <v>1.01268827258539</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9229974215695459</v>
+        <v>1.006372221477527</v>
       </c>
       <c r="D24">
-        <v>1.014276242366494</v>
+        <v>1.030842363131121</v>
       </c>
       <c r="E24">
-        <v>0.9414383182184707</v>
+        <v>1.009281032843367</v>
       </c>
       <c r="F24">
-        <v>0.8730701130671573</v>
+        <v>1.015115562135691</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031858441922596</v>
+        <v>1.031191114857329</v>
       </c>
       <c r="J24">
-        <v>0.9538195533998797</v>
+        <v>1.012767907608284</v>
       </c>
       <c r="K24">
-        <v>1.028057205251134</v>
+        <v>1.034230522213858</v>
       </c>
       <c r="L24">
-        <v>0.9565782945776161</v>
+        <v>1.012747061728903</v>
       </c>
       <c r="M24">
-        <v>0.8897648634996541</v>
+        <v>1.018560158664585</v>
       </c>
       <c r="N24">
-        <v>0.9551740865703394</v>
+        <v>1.01420615420319</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9395949187421534</v>
+        <v>1.008740062934757</v>
       </c>
       <c r="D25">
-        <v>1.024190392548063</v>
+        <v>1.03192132259517</v>
       </c>
       <c r="E25">
-        <v>0.9549557305553934</v>
+        <v>1.011299705771817</v>
       </c>
       <c r="F25">
-        <v>0.9079614897733977</v>
+        <v>1.018752894347207</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039074187611931</v>
+        <v>1.031669254552062</v>
       </c>
       <c r="J25">
-        <v>0.9663413831572132</v>
+        <v>1.014500848984204</v>
       </c>
       <c r="K25">
-        <v>1.036424441140193</v>
+        <v>1.03498609155984</v>
       </c>
       <c r="L25">
-        <v>0.9682960117614238</v>
+        <v>1.014431277043704</v>
       </c>
       <c r="M25">
-        <v>0.9221790610157874</v>
+        <v>1.021859979569255</v>
       </c>
       <c r="N25">
-        <v>0.967713698762202</v>
+        <v>1.015941556554635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010609482809288</v>
+        <v>0.951327606821904</v>
       </c>
       <c r="D2">
-        <v>1.032759647145525</v>
+        <v>1.031052035522585</v>
       </c>
       <c r="E2">
-        <v>1.012894841371706</v>
+        <v>0.9645315653050828</v>
       </c>
       <c r="F2">
-        <v>1.021566736237584</v>
+        <v>0.9311864489509042</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032024198915173</v>
+        <v>1.043865617808694</v>
       </c>
       <c r="J2">
-        <v>1.015862738610064</v>
+        <v>0.9750683863819719</v>
       </c>
       <c r="K2">
-        <v>1.035563950726745</v>
+        <v>1.0420950744051</v>
       </c>
       <c r="L2">
-        <v>1.015757626064116</v>
+        <v>0.9765081922700704</v>
       </c>
       <c r="M2">
-        <v>1.024403686839626</v>
+        <v>0.9436956871993294</v>
       </c>
       <c r="N2">
-        <v>1.017305380219976</v>
+        <v>0.9764530953325413</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01195608930404</v>
+        <v>0.959200911458633</v>
       </c>
       <c r="D3">
-        <v>1.033355579263744</v>
+        <v>1.03558228411143</v>
       </c>
       <c r="E3">
-        <v>1.014044663794074</v>
+        <v>0.9709697048444531</v>
       </c>
       <c r="F3">
-        <v>1.023560347132546</v>
+        <v>0.946159611124345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03226673126711</v>
+        <v>1.046928859719642</v>
       </c>
       <c r="J3">
-        <v>1.016840118094799</v>
+        <v>0.980869160597948</v>
       </c>
       <c r="K3">
-        <v>1.035969291396394</v>
+        <v>1.045779259131669</v>
       </c>
       <c r="L3">
-        <v>1.016711097299833</v>
+        <v>0.9819880221564177</v>
       </c>
       <c r="M3">
-        <v>1.026200532358902</v>
+        <v>0.9575311188792365</v>
       </c>
       <c r="N3">
-        <v>1.018284147695686</v>
+        <v>0.9822621073132622</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012822566151268</v>
+        <v>0.9640470077215599</v>
       </c>
       <c r="D4">
-        <v>1.033735319735869</v>
+        <v>1.038338065786618</v>
       </c>
       <c r="E4">
-        <v>1.01478488247118</v>
+        <v>0.9749379934820952</v>
       </c>
       <c r="F4">
-        <v>1.024827793057758</v>
+        <v>0.955139642151291</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032416675655519</v>
+        <v>1.048749437946927</v>
       </c>
       <c r="J4">
-        <v>1.017467331238495</v>
+        <v>0.9844173572988469</v>
       </c>
       <c r="K4">
-        <v>1.036225025101365</v>
+        <v>1.047994796592656</v>
       </c>
       <c r="L4">
-        <v>1.017323709116644</v>
+        <v>0.9853486117066577</v>
       </c>
       <c r="M4">
-        <v>1.027340343374573</v>
+        <v>0.9658114440317573</v>
       </c>
       <c r="N4">
-        <v>1.018912251553988</v>
+        <v>0.9858153428604604</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013185682875214</v>
+        <v>0.9660307238031451</v>
       </c>
       <c r="D5">
-        <v>1.033893562908545</v>
+        <v>1.039458434259079</v>
       </c>
       <c r="E5">
-        <v>1.015095174267709</v>
+        <v>0.9765636933779562</v>
       </c>
       <c r="F5">
-        <v>1.025355275314863</v>
+        <v>0.958764193994713</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032478043611925</v>
+        <v>1.049479683594832</v>
       </c>
       <c r="J5">
-        <v>1.017729775344011</v>
+        <v>0.9858648312236022</v>
       </c>
       <c r="K5">
-        <v>1.036330972626921</v>
+        <v>1.04888959716398</v>
       </c>
       <c r="L5">
-        <v>1.017580221605214</v>
+        <v>0.9867215148525594</v>
       </c>
       <c r="M5">
-        <v>1.027814088870227</v>
+        <v>0.9691493194846336</v>
       </c>
       <c r="N5">
-        <v>1.019175068360237</v>
+        <v>0.9872648723642166</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013246584755431</v>
+        <v>0.9663608074802674</v>
       </c>
       <c r="D6">
-        <v>1.033920050686757</v>
+        <v>1.0396444096532</v>
       </c>
       <c r="E6">
-        <v>1.015147221414558</v>
+        <v>0.976834280561056</v>
       </c>
       <c r="F6">
-        <v>1.025443529391489</v>
+        <v>0.9593644173597549</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032488249840295</v>
+        <v>1.049600325170373</v>
       </c>
       <c r="J6">
-        <v>1.017773768721878</v>
+        <v>0.9861054037467409</v>
       </c>
       <c r="K6">
-        <v>1.036348670163254</v>
+        <v>1.049037785010249</v>
       </c>
       <c r="L6">
-        <v>1.017623231129638</v>
+        <v>0.9869498059648849</v>
       </c>
       <c r="M6">
-        <v>1.027893315564966</v>
+        <v>0.9697018156562479</v>
       </c>
       <c r="N6">
-        <v>1.019219124213746</v>
+        <v>0.9875057865279319</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012827422633695</v>
+        <v>0.9640737177988965</v>
       </c>
       <c r="D7">
-        <v>1.033737439682197</v>
+        <v>1.038353181604878</v>
       </c>
       <c r="E7">
-        <v>1.014789032110513</v>
+        <v>0.9749598778293964</v>
       </c>
       <c r="F7">
-        <v>1.024834862268901</v>
+        <v>0.9551886433758366</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032417502207494</v>
+        <v>1.048759329386735</v>
       </c>
       <c r="J7">
-        <v>1.017470842870511</v>
+        <v>0.9844368663016599</v>
       </c>
       <c r="K7">
-        <v>1.036226446912124</v>
+        <v>1.048006892481884</v>
       </c>
       <c r="L7">
-        <v>1.017327140679221</v>
+        <v>0.9853671079879348</v>
       </c>
       <c r="M7">
-        <v>1.027346694868025</v>
+        <v>0.9658565867423925</v>
       </c>
       <c r="N7">
-        <v>1.018915768172924</v>
+        <v>0.985834879568295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01106559198892</v>
+        <v>0.9540438079613486</v>
       </c>
       <c r="D8">
-        <v>1.032962263259591</v>
+        <v>1.032622013850186</v>
       </c>
       <c r="E8">
-        <v>1.013284222071333</v>
+        <v>0.9667514513849073</v>
       </c>
       <c r="F8">
-        <v>1.022245185610508</v>
+        <v>0.9364062315065266</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032107614316608</v>
+        <v>1.044936691533532</v>
       </c>
       <c r="J8">
-        <v>1.016194136526184</v>
+        <v>0.977074613247063</v>
       </c>
       <c r="K8">
-        <v>1.035702296594543</v>
+        <v>1.04337751178117</v>
       </c>
       <c r="L8">
-        <v>1.016080763393022</v>
+        <v>0.978401460019815</v>
       </c>
       <c r="M8">
-        <v>1.025015701295021</v>
+        <v>0.9485225669138234</v>
       </c>
       <c r="N8">
-        <v>1.017637248759147</v>
+        <v>0.9784621712698984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007923027341341</v>
+        <v>0.9341188080227124</v>
       </c>
       <c r="D9">
-        <v>1.031551111661283</v>
+        <v>1.020945558295628</v>
       </c>
       <c r="E9">
-        <v>1.010602935523861</v>
+        <v>0.9504926501313644</v>
       </c>
       <c r="F9">
-        <v>1.017506848660415</v>
+        <v>0.8967270253462849</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031507768688152</v>
+        <v>1.036749290791116</v>
       </c>
       <c r="J9">
-        <v>1.013903865384551</v>
+        <v>0.9622335452115881</v>
       </c>
       <c r="K9">
-        <v>1.034728270913417</v>
+        <v>1.033707709065608</v>
       </c>
       <c r="L9">
-        <v>1.01385065020971</v>
+        <v>0.9644434908031321</v>
       </c>
       <c r="M9">
-        <v>1.020730957623866</v>
+        <v>0.9117518536945419</v>
       </c>
       <c r="N9">
-        <v>1.015343725169797</v>
+        <v>0.9636000272155191</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005801391960342</v>
+        <v>0.9186152580570996</v>
       </c>
       <c r="D10">
-        <v>1.030579556704191</v>
+        <v>1.011619160398689</v>
       </c>
       <c r="E10">
-        <v>1.008794662183051</v>
+        <v>0.9378733648347679</v>
       </c>
       <c r="F10">
-        <v>1.014226939342651</v>
+        <v>0.8634141199472526</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031071320330002</v>
+        <v>1.029868904419234</v>
       </c>
       <c r="J10">
-        <v>1.012348870596195</v>
+        <v>0.950476338064241</v>
       </c>
       <c r="K10">
-        <v>1.034044634333437</v>
+        <v>1.02578174917489</v>
       </c>
       <c r="L10">
-        <v>1.012340363925048</v>
+        <v>0.9534628786574255</v>
       </c>
       <c r="M10">
-        <v>1.017752177859602</v>
+        <v>0.8807814488331701</v>
       </c>
       <c r="N10">
-        <v>1.01378652211048</v>
+        <v>0.9518261234854521</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004876145895335</v>
+        <v>0.9110986903605738</v>
       </c>
       <c r="D11">
-        <v>1.030151456997499</v>
+        <v>1.007022164926148</v>
       </c>
       <c r="E11">
-        <v>1.008006540473596</v>
+        <v>0.9317607219070116</v>
       </c>
       <c r="F11">
-        <v>1.012777193719117</v>
+        <v>0.8463656173913255</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030873564004273</v>
+        <v>1.026372409423211</v>
       </c>
       <c r="J11">
-        <v>1.011668654375489</v>
+        <v>0.9447021015887853</v>
       </c>
       <c r="K11">
-        <v>1.033740378356078</v>
+        <v>1.021812857498139</v>
       </c>
       <c r="L11">
-        <v>1.01168062022094</v>
+        <v>0.9480954557658892</v>
       </c>
       <c r="M11">
-        <v>1.016432578441876</v>
+        <v>0.864911309074249</v>
       </c>
       <c r="N11">
-        <v>1.013105339904719</v>
+        <v>0.9460436869318868</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004531459895489</v>
+        <v>0.9081446057451409</v>
       </c>
       <c r="D12">
-        <v>1.029991318556566</v>
+        <v>1.005201418434132</v>
       </c>
       <c r="E12">
-        <v>1.007713008752373</v>
+        <v>0.9293587924679285</v>
       </c>
       <c r="F12">
-        <v>1.012234184930459</v>
+        <v>0.839484814430999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030798781170333</v>
+        <v>1.024968482431388</v>
       </c>
       <c r="J12">
-        <v>1.011414937118939</v>
+        <v>0.9424181441520557</v>
       </c>
       <c r="K12">
-        <v>1.033626116938314</v>
+        <v>1.020229641354944</v>
       </c>
       <c r="L12">
-        <v>1.011434676609137</v>
+        <v>0.9459771944214217</v>
       </c>
       <c r="M12">
-        <v>1.015937879647752</v>
+        <v>0.8585035732479704</v>
       </c>
       <c r="N12">
-        <v>1.012851262340563</v>
+        <v>0.9437564860136238</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004605442213128</v>
+        <v>0.9087865553556967</v>
       </c>
       <c r="D13">
-        <v>1.030025719787288</v>
+        <v>1.005597777940078</v>
       </c>
       <c r="E13">
-        <v>1.00777600826795</v>
+        <v>0.9298807469943637</v>
       </c>
       <c r="F13">
-        <v>1.012350867402869</v>
+        <v>0.8409891861335699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030814882567407</v>
+        <v>1.025275027664784</v>
       </c>
       <c r="J13">
-        <v>1.011469408372913</v>
+        <v>0.9429152027726044</v>
       </c>
       <c r="K13">
-        <v>1.033650683002581</v>
+        <v>1.020574837092781</v>
       </c>
       <c r="L13">
-        <v>1.011487472698862</v>
+        <v>0.9464379574661724</v>
       </c>
       <c r="M13">
-        <v>1.01604420083844</v>
+        <v>0.8599046164863395</v>
       </c>
       <c r="N13">
-        <v>1.012905810949965</v>
+        <v>0.9442542505144269</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004847674746568</v>
+        <v>0.9108581433155758</v>
       </c>
       <c r="D14">
-        <v>1.030138242875726</v>
+        <v>1.006874207541823</v>
       </c>
       <c r="E14">
-        <v>1.007982293235923</v>
+        <v>0.9315651319369104</v>
       </c>
       <c r="F14">
-        <v>1.012732400856362</v>
+        <v>0.8458092855977312</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030867409566748</v>
+        <v>1.026258728042308</v>
       </c>
       <c r="J14">
-        <v>1.011647703656094</v>
+        <v>0.9445164415959519</v>
       </c>
       <c r="K14">
-        <v>1.03373095897295</v>
+        <v>1.021684440751537</v>
       </c>
       <c r="L14">
-        <v>1.011660308609284</v>
+        <v>0.9479231623206886</v>
       </c>
       <c r="M14">
-        <v>1.016391779525666</v>
+        <v>0.8643932716227944</v>
       </c>
       <c r="N14">
-        <v>1.013084359432899</v>
+        <v>0.9458577632805684</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004996787898932</v>
+        <v>0.9121113735422985</v>
       </c>
       <c r="D15">
-        <v>1.030207422928175</v>
+        <v>1.007644470188429</v>
       </c>
       <c r="E15">
-        <v>1.008109287216754</v>
+        <v>0.9325841520155701</v>
       </c>
       <c r="F15">
-        <v>1.012966876510091</v>
+        <v>0.8487001828170574</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030899597003333</v>
+        <v>1.026849768526102</v>
       </c>
       <c r="J15">
-        <v>1.011757416926929</v>
+        <v>0.9454831050250352</v>
       </c>
       <c r="K15">
-        <v>1.033780254078845</v>
+        <v>1.022352514018645</v>
       </c>
       <c r="L15">
-        <v>1.011766680666715</v>
+        <v>0.9488204285063341</v>
       </c>
       <c r="M15">
-        <v>1.016605330415651</v>
+        <v>0.8670850823097133</v>
       </c>
       <c r="N15">
-        <v>1.013194228509163</v>
+        <v>0.9468257994825988</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005862657320845</v>
+        <v>0.919094160924236</v>
       </c>
       <c r="D16">
-        <v>1.03060781132487</v>
+        <v>1.011910350377903</v>
       </c>
       <c r="E16">
-        <v>1.008846857687079</v>
+        <v>0.9382629024318903</v>
       </c>
       <c r="F16">
-        <v>1.014322525999694</v>
+        <v>0.8644791547026422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031084259166297</v>
+        <v>1.030088064665244</v>
       </c>
       <c r="J16">
-        <v>1.012393867468966</v>
+        <v>0.9508425046745228</v>
       </c>
       <c r="K16">
-        <v>1.034064652447541</v>
+        <v>1.026031782695941</v>
       </c>
       <c r="L16">
-        <v>1.012384025728117</v>
+        <v>0.9538038216413749</v>
       </c>
       <c r="M16">
-        <v>1.017839122380088</v>
+        <v>0.8817725077586586</v>
       </c>
       <c r="N16">
-        <v>1.013831582883971</v>
+        <v>0.9521928100943201</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006404021554044</v>
+        <v>0.9232364914119776</v>
       </c>
       <c r="D17">
-        <v>1.030856973773973</v>
+        <v>1.014420722611984</v>
       </c>
       <c r="E17">
-        <v>1.0093081310143</v>
+        <v>0.9416328417054943</v>
       </c>
       <c r="F17">
-        <v>1.015164934363902</v>
+        <v>0.873591218590698</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031197738018906</v>
+        <v>1.031965960704616</v>
       </c>
       <c r="J17">
-        <v>1.01279123739909</v>
+        <v>0.9540014745823306</v>
       </c>
       <c r="K17">
-        <v>1.034240836167057</v>
+        <v>1.028180542077657</v>
       </c>
       <c r="L17">
-        <v>1.012769710745659</v>
+        <v>0.956747980395753</v>
       </c>
       <c r="M17">
-        <v>1.018605030454117</v>
+        <v>0.8902495437683231</v>
       </c>
       <c r="N17">
-        <v>1.014229517124976</v>
+        <v>0.955356266101736</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006719158380726</v>
+        <v>0.9255787027480745</v>
       </c>
       <c r="D18">
-        <v>1.031001591767191</v>
+        <v>1.015833626992388</v>
       </c>
       <c r="E18">
-        <v>1.009576690471909</v>
+        <v>0.9435388529888884</v>
       </c>
       <c r="F18">
-        <v>1.015653453487526</v>
+        <v>0.8786664076557598</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031263082694505</v>
+        <v>1.033013787172855</v>
       </c>
       <c r="J18">
-        <v>1.013022352794763</v>
+        <v>0.9557812857631218</v>
       </c>
       <c r="K18">
-        <v>1.034342807112825</v>
+        <v>1.029384536030091</v>
       </c>
       <c r="L18">
-        <v>1.012994117822364</v>
+        <v>0.958408954878348</v>
       </c>
       <c r="M18">
-        <v>1.019048904303736</v>
+        <v>0.8949692209253159</v>
       </c>
       <c r="N18">
-        <v>1.014460960731019</v>
+        <v>0.9571386048185514</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00682650539416</v>
+        <v>0.9263657105650364</v>
       </c>
       <c r="D19">
-        <v>1.031050781903765</v>
+        <v>1.016307322926771</v>
       </c>
       <c r="E19">
-        <v>1.009668179134529</v>
+        <v>0.9441793914532617</v>
       </c>
       <c r="F19">
-        <v>1.015819545747483</v>
+        <v>0.8803595989379173</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031285220385799</v>
+        <v>1.033363609706411</v>
       </c>
       <c r="J19">
-        <v>1.013101045148912</v>
+        <v>0.9563783120716929</v>
       </c>
       <c r="K19">
-        <v>1.034377442169811</v>
+        <v>1.029787318175327</v>
       </c>
       <c r="L19">
-        <v>1.013070540954167</v>
+        <v>0.9589664695480191</v>
       </c>
       <c r="M19">
-        <v>1.019199769476443</v>
+        <v>0.8965434866310303</v>
       </c>
       <c r="N19">
-        <v>1.014539764837338</v>
+        <v>0.9577364789729601</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006346003800704</v>
+        <v>0.9227999345920002</v>
       </c>
       <c r="D20">
-        <v>1.030830314948629</v>
+        <v>1.01415685535672</v>
       </c>
       <c r="E20">
-        <v>1.00925869192086</v>
+        <v>0.9412776324865197</v>
       </c>
       <c r="F20">
-        <v>1.015074846545949</v>
+        <v>0.8726392112948352</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031185650345297</v>
+        <v>1.031769545169149</v>
       </c>
       <c r="J20">
-        <v>1.012748672157461</v>
+        <v>0.9536692388318414</v>
       </c>
       <c r="K20">
-        <v>1.034222015520485</v>
+        <v>1.027955258861294</v>
       </c>
       <c r="L20">
-        <v>1.012728388072897</v>
+        <v>0.9564381020589439</v>
       </c>
       <c r="M20">
-        <v>1.018523152836888</v>
+        <v>0.8893640712263169</v>
       </c>
       <c r="N20">
-        <v>1.014186891435821</v>
+        <v>0.9550235585383733</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004776371323326</v>
+        <v>0.9102530483388701</v>
       </c>
       <c r="D21">
-        <v>1.030105138718046</v>
+        <v>1.006501785053236</v>
       </c>
       <c r="E21">
-        <v>1.007921569360748</v>
+        <v>0.9310731304913616</v>
       </c>
       <c r="F21">
-        <v>1.012620173831517</v>
+        <v>0.8444067638152478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030851978395455</v>
+        <v>1.025972265031978</v>
       </c>
       <c r="J21">
-        <v>1.011595229410085</v>
+        <v>0.9440491667632253</v>
       </c>
       <c r="K21">
-        <v>1.033707354210825</v>
+        <v>1.021361017276077</v>
       </c>
       <c r="L21">
-        <v>1.011609437324394</v>
+        <v>0.9474896089098822</v>
       </c>
       <c r="M21">
-        <v>1.01628955218115</v>
+        <v>0.8630872531793345</v>
       </c>
       <c r="N21">
-        <v>1.013031810667441</v>
+        <v>0.9453898248639818</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003783635026667</v>
+        <v>0.9013817033004369</v>
       </c>
       <c r="D22">
-        <v>1.029642688031141</v>
+        <v>1.001001534883568</v>
       </c>
       <c r="E22">
-        <v>1.007076297477288</v>
+        <v>0.9238597941424588</v>
       </c>
       <c r="F22">
-        <v>1.011050698802223</v>
+        <v>0.8233118873899874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030634500851759</v>
+        <v>1.021688504501796</v>
       </c>
       <c r="J22">
-        <v>1.010863902157069</v>
+        <v>0.9371556568174683</v>
       </c>
       <c r="K22">
-        <v>1.033376544976065</v>
+        <v>1.016553177247708</v>
       </c>
       <c r="L22">
-        <v>1.010900776776225</v>
+        <v>0.9411071719743235</v>
       </c>
       <c r="M22">
-        <v>1.014858890603523</v>
+        <v>0.8434387926707357</v>
       </c>
       <c r="N22">
-        <v>1.012299444845842</v>
+        <v>0.9384865253434055</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004310465128878</v>
+        <v>0.9061997220561455</v>
       </c>
       <c r="D23">
-        <v>1.029888461844596</v>
+        <v>1.003998193897264</v>
       </c>
       <c r="E23">
-        <v>1.00752483144088</v>
+        <v>0.9277774521156688</v>
       </c>
       <c r="F23">
-        <v>1.011885208917343</v>
+        <v>0.8348953813738413</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030750521603882</v>
+        <v>1.024034749464954</v>
       </c>
       <c r="J23">
-        <v>1.011252178499675</v>
+        <v>0.9409096821516006</v>
       </c>
       <c r="K23">
-        <v>1.033552601128641</v>
+        <v>1.019179874009741</v>
       </c>
       <c r="L23">
-        <v>1.011276943476352</v>
+        <v>0.9445796902691017</v>
       </c>
       <c r="M23">
-        <v>1.015619828864689</v>
+        <v>0.8542290636270514</v>
       </c>
       <c r="N23">
-        <v>1.01268827258539</v>
+        <v>0.9422458818241048</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006372221477527</v>
+        <v>0.9229974215695459</v>
       </c>
       <c r="D24">
-        <v>1.030842363131121</v>
+        <v>1.014276242366495</v>
       </c>
       <c r="E24">
-        <v>1.009281032843367</v>
+        <v>0.9414383182184705</v>
       </c>
       <c r="F24">
-        <v>1.015115562135691</v>
+        <v>0.873070113067158</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031191114857329</v>
+        <v>1.031858441922596</v>
       </c>
       <c r="J24">
-        <v>1.012767907608284</v>
+        <v>0.9538195533998797</v>
       </c>
       <c r="K24">
-        <v>1.034230522213858</v>
+        <v>1.028057205251135</v>
       </c>
       <c r="L24">
-        <v>1.012747061728903</v>
+        <v>0.9565782945776161</v>
       </c>
       <c r="M24">
-        <v>1.018560158664585</v>
+        <v>0.889764863499655</v>
       </c>
       <c r="N24">
-        <v>1.01420615420319</v>
+        <v>0.955174086570339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008740062934757</v>
+        <v>0.9395949187421532</v>
       </c>
       <c r="D25">
-        <v>1.03192132259517</v>
+        <v>1.024190392548063</v>
       </c>
       <c r="E25">
-        <v>1.011299705771817</v>
+        <v>0.9549557305553932</v>
       </c>
       <c r="F25">
-        <v>1.018752894347207</v>
+        <v>0.9079614897733963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031669254552062</v>
+        <v>1.039074187611931</v>
       </c>
       <c r="J25">
-        <v>1.014500848984204</v>
+        <v>0.9663413831572127</v>
       </c>
       <c r="K25">
-        <v>1.03498609155984</v>
+        <v>1.036424441140193</v>
       </c>
       <c r="L25">
-        <v>1.014431277043704</v>
+        <v>0.9682960117614234</v>
       </c>
       <c r="M25">
-        <v>1.021859979569255</v>
+        <v>0.9221790610157862</v>
       </c>
       <c r="N25">
-        <v>1.015941556554635</v>
+        <v>0.9677136987622018</v>
       </c>
     </row>
   </sheetData>
